--- a/cypress/fixtures/CRISPDuesIn.xlsx
+++ b/cypress/fixtures/CRISPDuesIn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joero\Documents\GitHub\cypress-cucumber-example\cypress\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F122A3-8EE7-4526-B2F7-1F4798B979E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB60534-0A5B-41E8-80E5-B45C702A298D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4380" yWindow="5265" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -157,12 +157,6 @@
     <t>0</t>
   </si>
   <si>
-    <t>A123</t>
-  </si>
-  <si>
-    <t>A123 200017758</t>
-  </si>
-  <si>
     <t>123456</t>
   </si>
   <si>
@@ -206,6 +200,12 @@
   </si>
   <si>
     <t>07/09/2020</t>
+  </si>
+  <si>
+    <t>W333</t>
+  </si>
+  <si>
+    <t>W333 200017758</t>
   </si>
 </sst>
 </file>
@@ -594,7 +594,7 @@
   <dimension ref="A1:AA4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -694,10 +694,10 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D2" s="6">
         <v>96709435</v>
@@ -706,10 +706,10 @@
         <v>29</v>
       </c>
       <c r="H2" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="M2" s="6" t="s">
         <v>27</v>
@@ -735,10 +735,10 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>36</v>
       </c>
       <c r="D3" s="6">
         <v>96709435</v>
@@ -747,39 +747,39 @@
         <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="I3" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="M3" s="6" t="s">
         <v>27</v>
       </c>
       <c r="N3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>42</v>
       </c>
       <c r="W3" s="6" t="s">
         <v>30</v>
       </c>
       <c r="X3" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Y3" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>37</v>
       </c>
       <c r="D4" s="6">
         <v>96709435</v>
@@ -788,31 +788,31 @@
         <v>29</v>
       </c>
       <c r="H4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M4" s="6" t="s">
         <v>27</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="W4" s="6" t="s">
         <v>30</v>
       </c>
       <c r="X4" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Y4" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/fixtures/CRISPDuesIn.xlsx
+++ b/cypress/fixtures/CRISPDuesIn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joero\Documents\GitHub\cypress-cucumber-example\cypress\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB60534-0A5B-41E8-80E5-B45C702A298D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE7F124-7838-4369-8665-BD8B30BE43B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -212,6 +212,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -293,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -311,6 +314,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -594,7 +598,7 @@
   <dimension ref="A1:AA4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -726,10 +730,10 @@
       <c r="W2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="X2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="Y2" s="7" t="s">
         <v>29</v>
       </c>
     </row>
@@ -767,10 +771,10 @@
       <c r="W3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="X3" s="6" t="s">
+      <c r="X3" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="Y3" s="6" t="s">
+      <c r="Y3" s="7" t="s">
         <v>43</v>
       </c>
     </row>
@@ -808,10 +812,10 @@
       <c r="W4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="X4" s="6" t="s">
+      <c r="X4" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="Y4" s="6" t="s">
+      <c r="Y4" s="7" t="s">
         <v>45</v>
       </c>
     </row>
